--- a/resources/ExcelsheetData/WorkbookUploadTemplates/WorkbookItemsTemplate-PN-MN.xlsx
+++ b/resources/ExcelsheetData/WorkbookUploadTemplates/WorkbookItemsTemplate-PN-MN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>PART_NUMBER</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Auto TestManufacturer 2212</t>
+  </si>
+  <si>
+    <t>Auto TestPN 3311</t>
+  </si>
+  <si>
+    <t>Auto TestManufacturer 3313</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
